--- a/rosters/2023/Denver/Denver.xlsx
+++ b/rosters/2023/Denver/Denver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -46,45 +46,39 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Bruce Brown</t>
+  </si>
+  <si>
     <t>Kentavious Caldwell-Pope</t>
   </si>
   <si>
-    <t>Bruce Brown</t>
+    <t>Christian Braun</t>
   </si>
   <si>
     <t>Nikola Jokić</t>
   </si>
   <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Bones Hyland</t>
-  </si>
-  <si>
     <t>Zeke Nnaji</t>
   </si>
   <si>
     <t>Vlatko Čančar</t>
   </si>
   <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
     <t>DeAndre Jordan</t>
   </si>
   <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
-    <t>Davon Reed</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
     <t>Ish Smith</t>
   </si>
   <si>
@@ -94,6 +88,9 @@
     <t>Peyton Watson</t>
   </si>
   <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
     <t>Collin Gillespie (TW)</t>
   </si>
   <si>
@@ -112,18 +109,18 @@
     <t>SF</t>
   </si>
   <si>
+    <t>6-4</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-4</t>
+    <t>6-7</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -139,45 +136,39 @@
     <t>6-0</t>
   </si>
   <si>
+    <t>August 15, 1996</t>
+  </si>
+  <si>
     <t>February 18, 1993</t>
   </si>
   <si>
-    <t>August 15, 1996</t>
+    <t>April 17, 2001</t>
   </si>
   <si>
     <t>February 19, 1995</t>
   </si>
   <si>
-    <t>April 17, 2001</t>
-  </si>
-  <si>
     <t>September 16, 1995</t>
   </si>
   <si>
     <t>February 23, 1997</t>
   </si>
   <si>
-    <t>September 14, 2000</t>
-  </si>
-  <si>
     <t>January 9, 2001</t>
   </si>
   <si>
     <t>April 10, 1997</t>
   </si>
   <si>
+    <t>June 29, 1998</t>
+  </si>
+  <si>
+    <t>August 28, 1986</t>
+  </si>
+  <si>
     <t>July 21, 1988</t>
   </si>
   <si>
-    <t>June 29, 1998</t>
-  </si>
-  <si>
-    <t>June 11, 1995</t>
-  </si>
-  <si>
-    <t>August 28, 1986</t>
-  </si>
-  <si>
     <t>July 5, 1988</t>
   </si>
   <si>
@@ -187,6 +178,9 @@
     <t>September 11, 2002</t>
   </si>
   <si>
+    <t>July 31, 1997</t>
+  </si>
+  <si>
     <t>June 25, 1999</t>
   </si>
   <si>
@@ -205,27 +199,24 @@
     <t>au</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>4</t>
+    <t>R</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -238,12 +229,12 @@
     <t>12</t>
   </si>
   <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Miami (FL)</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
@@ -253,18 +244,15 @@
     <t>Kentucky</t>
   </si>
   <si>
-    <t>VCU</t>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
   </si>
   <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
     <t>Wake Forest</t>
   </si>
   <si>
@@ -274,48 +262,45 @@
     <t>UCLA</t>
   </si>
   <si>
+    <t>Indiana</t>
+  </si>
+  <si>
     <t>Villanova</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/brownbr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/caldwke01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/brownbr01.html</t>
+    <t>https://www.basketball-reference.com/players/b/braunch01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jokicni01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/braunch01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/gordoaa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/murraja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hylanbo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/n/nnajize01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/cancavl01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/portemi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/greenje02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jordade01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/portemi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/reedda01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/greenje02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/smithis01.html</t>
   </si>
   <si>
@@ -323,6 +308,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/watsope01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bryanth01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/gilleco01.html</t>
@@ -696,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,34 +727,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -774,34 +762,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -809,31 +797,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -841,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -850,25 +841,22 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -882,28 +870,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -917,28 +905,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -946,34 +934,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -981,34 +969,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1016,31 +1001,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1048,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1057,25 +1045,25 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1083,34 +1071,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1118,34 +1106,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1153,34 +1141,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1188,34 +1176,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1223,101 +1211,66 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
         <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18">
-        <v>195</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1291,6 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Denver/Denver.xlsx
+++ b/rosters/2023/Denver/Denver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>No.</t>
   </si>
@@ -64,12 +64,12 @@
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Vlatko Čančar</t>
+  </si>
+  <si>
     <t>Zeke Nnaji</t>
   </si>
   <si>
-    <t>Vlatko Čančar</t>
-  </si>
-  <si>
     <t>Michael Porter Jr.</t>
   </si>
   <si>
@@ -94,6 +94,9 @@
     <t>Collin Gillespie (TW)</t>
   </si>
   <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>6-0</t>
   </si>
   <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>August 15, 1996</t>
   </si>
   <si>
@@ -154,12 +160,12 @@
     <t>February 23, 1997</t>
   </si>
   <si>
+    <t>April 10, 1997</t>
+  </si>
+  <si>
     <t>January 9, 2001</t>
   </si>
   <si>
-    <t>April 10, 1997</t>
-  </si>
-  <si>
     <t>June 29, 1998</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
     <t>June 25, 1999</t>
   </si>
   <si>
+    <t>April 16, 1990</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -199,6 +208,9 @@
     <t>au</t>
   </si>
   <si>
+    <t>it</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -217,18 +229,21 @@
     <t>5</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Miami (FL)</t>
   </si>
   <si>
@@ -268,6 +283,9 @@
     <t>Villanova</t>
   </si>
   <si>
+    <t>Boston College</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/brownbr01.html</t>
   </si>
   <si>
@@ -286,12 +304,12 @@
     <t>https://www.basketball-reference.com/players/m/murraja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/cancavl01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/nnajize01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/cancavl01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/p/portemi01.html</t>
   </si>
   <si>
@@ -314,6 +332,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/gilleco01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jacksre01.html</t>
   </si>
 </sst>
 </file>
@@ -684,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,28 +754,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -768,28 +789,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>204</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -803,28 +824,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,25 +859,25 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>284</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -870,28 +891,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -905,28 +926,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -934,34 +955,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -969,31 +987,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1007,28 +1028,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1042,28 +1063,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,28 +1098,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>265</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,28 +1133,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1147,28 +1168,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1182,28 +1203,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1217,28 +1238,28 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1249,28 +1270,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>208</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1291,6 +1344,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Denver/Denver.xlsx
+++ b/rosters/2023/Denver/Denver.xlsx
@@ -64,15 +64,15 @@
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Michael Porter Jr.</t>
+  </si>
+  <si>
     <t>Vlatko Čančar</t>
   </si>
   <si>
     <t>Zeke Nnaji</t>
   </si>
   <si>
-    <t>Michael Porter Jr.</t>
-  </si>
-  <si>
     <t>Jeff Green</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>Thomas Bryant</t>
   </si>
   <si>
+    <t>Reggie Jackson</t>
+  </si>
+  <si>
     <t>Collin Gillespie (TW)</t>
   </si>
   <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>6-3</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>6-0</t>
   </si>
   <si>
@@ -160,15 +160,15 @@
     <t>February 23, 1997</t>
   </si>
   <si>
+    <t>June 29, 1998</t>
+  </si>
+  <si>
     <t>April 10, 1997</t>
   </si>
   <si>
     <t>January 9, 2001</t>
   </si>
   <si>
-    <t>June 29, 1998</t>
-  </si>
-  <si>
     <t>August 28, 1986</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>July 31, 1997</t>
   </si>
   <si>
+    <t>April 16, 1990</t>
+  </si>
+  <si>
     <t>June 25, 1999</t>
   </si>
   <si>
-    <t>April 16, 1990</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>Indiana</t>
   </si>
   <si>
+    <t>Boston College</t>
+  </si>
+  <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>Boston College</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/brownbr01.html</t>
   </si>
   <si>
@@ -304,15 +304,15 @@
     <t>https://www.basketball-reference.com/players/m/murraja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/portemi01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/cancavl01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/n/nnajize01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/portemi01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/greenje02.html</t>
   </si>
   <si>
@@ -331,10 +331,10 @@
     <t>https://www.basketball-reference.com/players/b/bryanth01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/jacksre01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/gilleco01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/jacksre01.html</t>
   </si>
 </sst>
 </file>
@@ -955,28 +955,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
         <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>96</v>
@@ -987,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -996,22 +999,19 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>97</v>
@@ -1022,19 +1022,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
       </c>
       <c r="F10">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1043,10 +1043,10 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>98</v>
@@ -1241,7 +1241,7 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>248</v>
@@ -1266,6 +1266,9 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1273,19 +1276,19 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
         <v>88</v>
@@ -1305,19 +1308,19 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
         <v>89</v>

--- a/rosters/2023/Denver/Denver.xlsx
+++ b/rosters/2023/Denver/Denver.xlsx
@@ -70,12 +70,12 @@
     <t>Vlatko Čančar</t>
   </si>
   <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
     <t>Zeke Nnaji</t>
   </si>
   <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
     <t>DeAndre Jordan</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>April 10, 1997</t>
   </si>
   <si>
+    <t>August 28, 1986</t>
+  </si>
+  <si>
     <t>January 9, 2001</t>
   </si>
   <si>
-    <t>August 28, 1986</t>
-  </si>
-  <si>
     <t>July 21, 1988</t>
   </si>
   <si>
@@ -232,12 +232,12 @@
     <t>3</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -310,10 +310,10 @@
     <t>https://www.basketball-reference.com/players/c/cancavl01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/greenje02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/nnajize01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/greenje02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jordade01.html</t>
@@ -1022,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1031,10 +1031,10 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1046,7 +1046,7 @@
         <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>98</v>
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1066,10 +1066,10 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
@@ -1081,7 +1081,7 @@
         <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>99</v>
@@ -1113,7 +1113,7 @@
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>

--- a/rosters/2023/Denver/Denver.xlsx
+++ b/rosters/2023/Denver/Denver.xlsx
@@ -76,21 +76,21 @@
     <t>Zeke Nnaji</t>
   </si>
   <si>
+    <t>Ish Smith</t>
+  </si>
+  <si>
     <t>DeAndre Jordan</t>
   </si>
   <si>
-    <t>Ish Smith</t>
-  </si>
-  <si>
     <t>Jack White (TW)</t>
   </si>
   <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
     <t>Peyton Watson</t>
   </si>
   <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
     <t>Reggie Jackson</t>
   </si>
   <si>
@@ -172,21 +172,21 @@
     <t>January 9, 2001</t>
   </si>
   <si>
+    <t>July 5, 1988</t>
+  </si>
+  <si>
     <t>July 21, 1988</t>
   </si>
   <si>
-    <t>July 5, 1988</t>
-  </si>
-  <si>
     <t>August 5, 1997</t>
   </si>
   <si>
+    <t>July 31, 1997</t>
+  </si>
+  <si>
     <t>September 11, 2002</t>
   </si>
   <si>
-    <t>July 31, 1997</t>
-  </si>
-  <si>
     <t>April 16, 1990</t>
   </si>
   <si>
@@ -265,21 +265,21 @@
     <t>Georgetown</t>
   </si>
   <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
     <t>Duke</t>
   </si>
   <si>
+    <t>Indiana</t>
+  </si>
+  <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>Boston College</t>
   </si>
   <si>
@@ -316,19 +316,19 @@
     <t>https://www.basketball-reference.com/players/n/nnajize01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/s/smithis01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jordade01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/s/smithis01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/whiteja03.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bryanth01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/watsope01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bryanth01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jacksre01.html</t>
@@ -1092,19 +1092,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -1113,7 +1113,7 @@
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -1127,19 +1127,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1148,7 +1148,7 @@
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
         <v>84</v>
@@ -1197,19 +1197,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
@@ -1218,7 +1218,7 @@
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
         <v>86</v>
@@ -1232,19 +1232,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
@@ -1253,7 +1253,7 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
         <v>87</v>

--- a/rosters/2023/Denver/Denver.xlsx
+++ b/rosters/2023/Denver/Denver.xlsx
@@ -82,15 +82,15 @@
     <t>DeAndre Jordan</t>
   </si>
   <si>
+    <t>Peyton Watson</t>
+  </si>
+  <si>
+    <t>Thomas Bryant</t>
+  </si>
+  <si>
     <t>Jack White (TW)</t>
   </si>
   <si>
-    <t>Thomas Bryant</t>
-  </si>
-  <si>
-    <t>Peyton Watson</t>
-  </si>
-  <si>
     <t>Reggie Jackson</t>
   </si>
   <si>
@@ -178,15 +178,15 @@
     <t>July 21, 1988</t>
   </si>
   <si>
+    <t>September 11, 2002</t>
+  </si>
+  <si>
+    <t>July 31, 1997</t>
+  </si>
+  <si>
     <t>August 5, 1997</t>
   </si>
   <si>
-    <t>July 31, 1997</t>
-  </si>
-  <si>
-    <t>September 11, 2002</t>
-  </si>
-  <si>
     <t>April 16, 1990</t>
   </si>
   <si>
@@ -271,15 +271,15 @@
     <t>Texas A&amp;M</t>
   </si>
   <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
     <t>Boston College</t>
   </si>
   <si>
@@ -322,13 +322,13 @@
     <t>https://www.basketball-reference.com/players/j/jordade01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/watsope01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bryanth01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/whiteja03.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bryanth01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/watsope01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jacksre01.html</t>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G14" t="s">
         <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
         <v>67</v>
@@ -1232,25 +1232,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
         <v>67</v>
